--- a/input/pyxl-sample.xlsx
+++ b/input/pyxl-sample.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Apple" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amazon" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Microsoft" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jerry Copy" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImgSheet" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jerry Copy" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -129,6 +130,86 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1933575" cy="2219325"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="1438275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="304800" cy="304800"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,6 +641,33 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="H1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>You should see three logos below</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/input/pyxl-sample.xlsx
+++ b/input/pyxl-sample.xlsx
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,9 @@
       <c r="C1" s="1" t="n">
         <v>44632</v>
       </c>
+      <c r="K1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2"/>
     <row r="3">
@@ -532,6 +535,9 @@
       <c r="C3">
         <f>SUM(1, 1)</f>
         <v/>
+      </c>
+      <c r="I3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,6 +694,9 @@
       <c r="C1" s="1" t="n">
         <v>44632</v>
       </c>
+      <c r="K1" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="2"/>
     <row r="3">
@@ -699,6 +708,9 @@
       <c r="C3">
         <f>SUM(1, 1)</f>
         <v/>
+      </c>
+      <c r="I3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4">

--- a/input/pyxl-sample.xlsx
+++ b/input/pyxl-sample.xlsx
@@ -8,11 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jerry" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Apple" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Amazon" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Microsoft" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ImgSheet" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Jerry Copy" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -130,86 +125,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>3</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1933575" cy="2219325"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2381250" cy="1438275"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="304800" cy="304800"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,180 +422,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col hidden="1" outlineLevel="1" width="13" customWidth="1" min="8" max="12"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Hello</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>44632</v>
-      </c>
-      <c r="K1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2"/>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>World</t>
-        </is>
-      </c>
-      <c r="C3">
-        <f>SUM(1, 1)</f>
-        <v/>
-      </c>
-      <c r="I3" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Jerry</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" hidden="1" outlineLevel="1"/>
-    <row r="11" hidden="1" outlineLevel="1"/>
-    <row r="12" hidden="1" outlineLevel="1"/>
-    <row r="13" hidden="1" outlineLevel="1"/>
-    <row r="14" hidden="1" outlineLevel="1"/>
-    <row r="15" hidden="1" outlineLevel="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Cloud</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Apps</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>XboxGaming</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="H1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>You should see three logos below</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col hidden="1" outlineLevel="1" width="13" customWidth="1" min="8" max="12"/>
   </cols>
